--- a/MOEA/Outputs/runtime_survey_V.xlsx
+++ b/MOEA/Outputs/runtime_survey_V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KernInternship\BETO\MOEA\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E6B322-17C0-429C-8B66-3C425893A9DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980FEBD-8B2C-4CB5-9FF4-1E2BF5ACCA0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1860" windowWidth="21600" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="county increase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>time</t>
   </si>
@@ -497,6 +497,185 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B2E6-4ADB-89EC-DE4CF698AD11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>county test V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'county increase'!$C$49:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'county increase'!$A$49:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.22707269191741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.52407790819803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8643220861752801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0903192361195799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3212834874788899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7048646966616299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8743299285570698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1083313107490498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.38075567483902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.69321101506551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9405403653780602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2471376180648797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.48903813362121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7226242979367496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9935775041580204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2114027619361796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5096615473429296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7554940104484498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.99925032456715</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2364178299903799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5960943420728002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9AF-4A0E-9525-F95C0DD19637}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1502,6 +1681,98 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A5F3-4FE7-8040-D039F2AE92D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>evolutions test V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'evolutions increase'!$E$27:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'evolutions increase'!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0990105470021501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1378718455632502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1973510106404599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-901B-4CE0-A7D0-369954089653}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3364,16 +3635,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3746,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,6 +4767,465 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1.22707269191741</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2">
+        <v>50</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1.52407790819803</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2">
+        <f>C49+50</f>
+        <v>100</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1.8643220861752801</v>
+      </c>
+      <c r="B51" s="2">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ref="C51:C68" si="1">C50+50</f>
+        <v>150</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2.0903192361195799</v>
+      </c>
+      <c r="B52" s="2">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2.3212834874788899</v>
+      </c>
+      <c r="B53" s="2">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2.7048646966616299</v>
+      </c>
+      <c r="B54" s="2">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2.8743299285570698</v>
+      </c>
+      <c r="B55" s="2">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>3.1083313107490498</v>
+      </c>
+      <c r="B56" s="2">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>3.38075567483902</v>
+      </c>
+      <c r="B57" s="2">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>3.69321101506551</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>3.9405403653780602</v>
+      </c>
+      <c r="B59" s="2">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>4.2471376180648797</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>4.48903813362121</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>4.7226242979367496</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>4.9935775041580204</v>
+      </c>
+      <c r="B63" s="2">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>5.2114027619361796</v>
+      </c>
+      <c r="B64" s="2">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>5.5096615473429296</v>
+      </c>
+      <c r="B65" s="2">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5.7554940104484498</v>
+      </c>
+      <c r="B66" s="2">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>5.99925032456715</v>
+      </c>
+      <c r="B67" s="2">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2">
+        <f>C66+50</f>
+        <v>950</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>6.2364178299903799</v>
+      </c>
+      <c r="B68" s="2">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>6.5960943420728002</v>
+      </c>
+      <c r="B69" s="2">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4507,7 +5237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C00F79-0E58-41FB-A2B7-EA9FED737DDB}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -5101,11 +5831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5937E-D061-4278-AA6B-78CD1F56E5EA}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5458,106 +6191,246 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2">
+        <v>1.0990105470021501</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2">
+        <v>2.1378718455632502</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E27+100000</f>
+        <v>200000</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2">
+        <v>3.1973510106404599</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29:E36" si="1">E28+100000</f>
+        <v>300000</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>700000</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
